--- a/data/income_statement/2digits/total/08_IS_TOTAL.xlsx
+++ b/data/income_statement/2digits/total/08_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>08-Other mining and quarrying</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>08-Other mining and quarrying</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>4477215.39621</v>
@@ -959,34 +865,39 @@
         <v>7363994.55748</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>8379005.60513</v>
+        <v>8379321.347399999</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>10048504.94385</v>
+        <v>10063224.22232</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>10662230.49575</v>
+        <v>10863796.08308</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>12293331.85534</v>
+        <v>12852808.36796</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>13837753.66815</v>
+        <v>13872205.40174</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>17695826.1523</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>21164983.28578</v>
+        <v>21217479.38832</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>20206209.83652</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>20373785.48047</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>22706990.54</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>3628817.04217</v>
@@ -998,34 +909,39 @@
         <v>5850601.99388</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>6724981.951020001</v>
+        <v>6725096.16334</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>8049855.458819999</v>
+        <v>8064408.83526</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>8491111.22614</v>
+        <v>8689329.853140002</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>9955684.159260001</v>
+        <v>10383139.47612</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>11135986.46992</v>
+        <v>11165546.42029</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>13931280.90344</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>15993480.37165</v>
+        <v>16045143.38701</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>14765779.26583</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>14850993.55652</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>16936634.487</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>743262.76161</v>
@@ -1037,34 +953,39 @@
         <v>1370697.756</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>1460229.93974</v>
+        <v>1460430.35448</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>1764031.37016</v>
+        <v>1764058.0061</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>1885240.11214</v>
+        <v>1885882.70811</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>2016230.00056</v>
+        <v>2141583.12961</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>2249902.25079</v>
+        <v>2253870.35414</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>3240428.1896</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>4581461.24368</v>
+        <v>4582088.614219999</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>4869271.262610001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>4950235.221100001</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>5204567.339</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>105135.59243</v>
@@ -1076,34 +997,39 @@
         <v>142694.8076</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>193793.71437</v>
+        <v>193794.82958</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>234618.11487</v>
+        <v>234757.38096</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>285879.15747</v>
+        <v>288583.52183</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>321417.69552</v>
+        <v>328085.76223</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>451864.94744</v>
+        <v>452788.6273100001</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>524117.05926</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>590041.6704500001</v>
+        <v>590247.3870900001</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>571159.3080799999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>572556.7028499999</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>565788.714</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>55758.76641</v>
@@ -1118,31 +1044,36 @@
         <v>75966.72003</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>113210.87064</v>
+        <v>113270.26887</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>117437.97958</v>
+        <v>128521.21011</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>113754.72038</v>
+        <v>127720.75914</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>180559.75612</v>
+        <v>180834.0406</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>204459.10312</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>239193.84741</v>
+        <v>239438.99102</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>240226.44436</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>240502.16451</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>377012.6</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>17375.33688</v>
@@ -1157,70 +1088,80 @@
         <v>27220.81896</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>31221.55059</v>
+        <v>31240.18933</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>40989.22181</v>
+        <v>52053.46788</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>45334.36354</v>
+        <v>58535.25006999999</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>113255.72708</v>
+        <v>113483.33212</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>115861.40549</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>99057.77958</v>
+        <v>99166.982</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>127852.87538</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>128108.94125</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>250268.39</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>5620.44407</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>7495.12808</v>
+        <v>7495.128079999999</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>5090.087699999999</v>
+        <v>5090.0877</v>
       </c>
       <c r="F11" s="48" t="n">
         <v>14111.54171</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>20868.25662</v>
+        <v>20909.01611</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>17550.57408</v>
+        <v>17569.55854</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>16651.56487</v>
+        <v>17177.83611</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>20718.66255</v>
+        <v>20721.03201</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>22875.5535</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>33189.05057000001</v>
+        <v>33189.05057</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>43923.77301</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>43928.70959000001</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>59400.764</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>32762.98546</v>
@@ -1235,34 +1176,39 @@
         <v>34634.35936</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>61121.06343</v>
+        <v>61121.06342999999</v>
       </c>
       <c r="H12" s="48" t="n">
         <v>58898.18369</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>51768.79197</v>
+        <v>52007.67296</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>46585.36648999999</v>
+        <v>46629.67647</v>
       </c>
       <c r="K12" s="48" t="n">
         <v>65722.14413</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>106947.01726</v>
+        <v>107082.95845</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>68449.79596999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>68464.51367</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>67343.446</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>4421456.629799999</v>
+        <v>4421456.6298</v>
       </c>
       <c r="D13" s="47" t="n">
         <v>6046972.36283</v>
@@ -1271,34 +1217,39 @@
         <v>7284980.31305</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>8303038.885100001</v>
+        <v>8303354.627369999</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>9935294.073210001</v>
+        <v>9949953.95345</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>10544792.51617</v>
+        <v>10735274.87297</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>12179577.13496</v>
+        <v>12725087.60882</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>13657193.91203</v>
+        <v>13691371.36114</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>17491367.04918</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>20925789.43837</v>
+        <v>20978040.3973</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>19965983.39216</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>20133283.31596</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>22329977.94</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>3366907.75313</v>
@@ -1310,34 +1261,39 @@
         <v>5478218.75251</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>6412555.01612</v>
+        <v>6413072.241370001</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>7453560.94923</v>
+        <v>7463278.27344</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>8043739.332459999</v>
+        <v>8161354.699569999</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>9318179.56126</v>
+        <v>9636813.910909999</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>10306683.40626</v>
+        <v>10334941.44398</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>13003212.37884</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>15534035.97398</v>
+        <v>15582831.87658</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>14626790.1872</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>14766380.26541</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>16269177.256</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>2126260.24474</v>
@@ -1349,37 +1305,42 @@
         <v>3405582.69691</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>4089917.29608</v>
+        <v>4089945.266139999</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>4844921.66884</v>
+        <v>4851475.86026</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>5350401.18812</v>
+        <v>5412378.73925</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>5955772.0793</v>
+        <v>6147388.687809999</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>6844885.89124</v>
+        <v>6859453.7508</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>8524660.65725</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>10563507.50796</v>
+        <v>10568503.85899</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>10059078.95496</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>10101818.99093</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>10457944.311</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>488687.00331</v>
+        <v>488687.0033100001</v>
       </c>
       <c r="D16" s="48" t="n">
         <v>644937.95939</v>
@@ -1388,37 +1349,42 @@
         <v>786970.93953</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>849290.94968</v>
+        <v>849290.9496800001</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>963544.94161</v>
+        <v>964394.11445</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>1055146.43273</v>
+        <v>1096188.87632</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>1519841.57299</v>
+        <v>1592136.98794</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>1365529.34026</v>
+        <v>1369161.09757</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>1870539.66861</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>2062234.76422</v>
+        <v>2078247.72212</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>2166584.97762</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>2184959.09273</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>2910049.355</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>718312.91392</v>
+        <v>718312.9139200001</v>
       </c>
       <c r="D17" s="48" t="n">
         <v>956213.4016699999</v>
@@ -1427,58 +1393,63 @@
         <v>1238054.46758</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>1389960.76721</v>
+        <v>1390450.0224</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>1596089.95642</v>
+        <v>1598403.91637</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>1578527.4284</v>
+        <v>1592831.24362</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>1756305.08165</v>
+        <v>1806531.67946</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>1945741.09778</v>
+        <v>1955232.39102</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>2413270.65245</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>2651579.2015</v>
+        <v>2679365.79517</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>2219043.2897</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>2296157.99146</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>2707550.404</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>33647.59116</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>50788.52529999999</v>
+        <v>50788.5253</v>
       </c>
       <c r="E18" s="48" t="n">
         <v>47610.64849</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>83386.00315</v>
+        <v>83386.00314999999</v>
       </c>
       <c r="G18" s="48" t="n">
         <v>49004.38236</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>59664.28320999999</v>
+        <v>59955.84037999999</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>86260.82732</v>
+        <v>90756.5557</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>150527.07698</v>
+        <v>151094.20459</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>194741.40053</v>
@@ -1487,13 +1458,18 @@
         <v>256714.5003</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>182082.96492</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>183444.19029</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>193633.186</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>1054548.87667</v>
@@ -1505,76 +1481,86 @@
         <v>1806761.56054</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>1890483.86898</v>
+        <v>1890282.386</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>2481733.12398</v>
+        <v>2486675.68001</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>2501053.18371</v>
+        <v>2573920.1734</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>2861397.5737</v>
+        <v>3088273.69791</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>3350510.50577</v>
+        <v>3356429.91716</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>4488154.67034</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>5391753.464389999</v>
+        <v>5395208.520719999</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>5339193.20496</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>5366903.05055</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>6060800.684</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>727916.8273299999</v>
+        <v>727916.82733</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>992356.8026100001</v>
+        <v>992356.80261</v>
       </c>
       <c r="E20" s="47" t="n">
         <v>1183292.35469</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>1321218.07299</v>
+        <v>1321798.2924</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>1568494.41892</v>
+        <v>1574749.63365</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>1745784.20919</v>
+        <v>1803393.33552</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>1943912.7519</v>
+        <v>2114854.82288</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>2242225.498149999</v>
+        <v>2247006.41279</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>2464161.50412</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>2957779.0716</v>
+        <v>2961404.65465</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>3076555.15109</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>3092629.24654</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>3237893.166</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>7182.64818</v>
+        <v>7182.648180000001</v>
       </c>
       <c r="D21" s="48" t="n">
         <v>19225.17317</v>
@@ -1592,10 +1578,10 @@
         <v>12911.66456</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>17496.43416</v>
+        <v>17730.33715</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>28458.77837</v>
+        <v>28458.87287</v>
       </c>
       <c r="K21" s="48" t="n">
         <v>24920.36388</v>
@@ -1604,13 +1590,18 @@
         <v>42077.75293</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>26037.27437</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>26220.19005</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>64346.368</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>304095.96624</v>
@@ -1619,37 +1610,42 @@
         <v>479124.5701599999</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>540956.6683499999</v>
+        <v>540956.6683500001</v>
       </c>
       <c r="F22" s="48" t="n">
         <v>586674.87374</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>703230.95578</v>
+        <v>705055.07222</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>736072.58983</v>
+        <v>750074.96394</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>837431.6878300001</v>
+        <v>875529.4792599999</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>902022.35104</v>
+        <v>904470.08905</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>1180714.29491</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>1411028.89512</v>
+        <v>1411705.71975</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>1423837.65453</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1429194.11259</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>1486327.496</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>416638.21291</v>
@@ -1661,34 +1657,39 @@
         <v>604709.87763</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>705694.62541</v>
+        <v>706274.84482</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>848679.45712</v>
+        <v>853110.5554099999</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>996799.9548000001</v>
+        <v>1040406.70702</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>1088984.62991</v>
+        <v>1221595.00647</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>1311744.36874</v>
+        <v>1314077.45087</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>1258526.84533</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>1504672.42355</v>
+        <v>1507621.18197</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>1626680.22219</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1637214.9439</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>1687219.302</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>326632.04934</v>
@@ -1697,37 +1698,42 @@
         <v>435889.18507</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>623469.20585</v>
+        <v>623469.2058499999</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>569265.79599</v>
+        <v>568484.0936</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>913238.7050599999</v>
+        <v>911926.0463599999</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>755268.9745199999</v>
+        <v>770526.83788</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>917484.8217999999</v>
+        <v>973418.8750299999</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>1108285.00762</v>
+        <v>1109423.50437</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>2023993.16622</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>2433974.39279</v>
+        <v>2433803.86607</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>2262638.05387</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>2274273.80401</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>2822907.518</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>201362.2281</v>
@@ -1739,34 +1745,39 @@
         <v>346194.92024</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>364725.64368</v>
+        <v>364745.06557</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>463951.46454</v>
+        <v>464001.4895</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>694599.2530400001</v>
+        <v>753260.0860199999</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>1707633.19897</v>
+        <v>1789398.67743</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>794989.15279</v>
+        <v>796479.45013</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>975427.0714200001</v>
+        <v>975427.0714199999</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>2323929.9403</v>
+        <v>2325076.57085</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>1295692.24621</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>1298247.89283</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>1848795.975</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>9916.19945</v>
@@ -1781,13 +1792,13 @@
         <v>18319.44005</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>64949.96142</v>
+        <v>64949.96141999999</v>
       </c>
       <c r="H26" s="48" t="n">
         <v>64792.77806</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>10542.00564</v>
+        <v>11525.3504</v>
       </c>
       <c r="J26" s="48" t="n">
         <v>6470.50436</v>
@@ -1796,16 +1807,21 @@
         <v>19167.09211</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>35666.28931</v>
+        <v>36891.28930999999</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>13740.87017</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>13978.17695</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>23242.665</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>31901.83458</v>
@@ -1823,7 +1839,7 @@
         <v>3964.70222</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>6783.19529</v>
+        <v>6783.195289999999</v>
       </c>
       <c r="I27" s="48" t="n">
         <v>276.74011</v>
@@ -1838,13 +1854,18 @@
         <v>22985.93214</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>36395.39255999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>36395.39256</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>1160.535</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>24627.07417</v>
@@ -1859,16 +1880,16 @@
         <v>65380.75537000001</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>58807.88405000001</v>
+        <v>58807.89595</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>69528.8073</v>
+        <v>71700.90932999998</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>67282.79641</v>
+        <v>87032.22127000001</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>103949.05119</v>
+        <v>104516.16441</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>120621.1452</v>
@@ -1877,13 +1898,18 @@
         <v>229669.90522</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>242963.2127</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>244498.95645</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>207035.348</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>1617.44704</v>
@@ -1904,10 +1930,10 @@
         <v>1238.70195</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>2215.52556</v>
+        <v>2226.55019</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>9225.745849999999</v>
+        <v>9225.745850000001</v>
       </c>
       <c r="K29" s="48" t="n">
         <v>2067.84539</v>
@@ -1916,13 +1942,18 @@
         <v>7272.24343</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>5196.798460000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>5200.10658</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>2018.487</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>3882.23911</v>
@@ -1943,10 +1974,10 @@
         <v>5717.02601</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>4741.226720000001</v>
+        <v>5136.538280000001</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>32841.05</v>
+        <v>32843.05</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>46074.59603</v>
@@ -1955,13 +1986,18 @@
         <v>32396.37414</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>36074.35740000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>36074.3574</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>40400.141</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>663.53971</v>
@@ -1979,13 +2015,13 @@
         <v>3286.35343</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>9285.515459999999</v>
+        <v>9304.333990000001</v>
       </c>
       <c r="I31" s="48" t="n">
         <v>8453.978570000001</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>28311.26848</v>
+        <v>28314.76093</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>7084.80039</v>
@@ -1996,11 +2032,16 @@
       <c r="M31" s="48" t="n">
         <v>22312.53889</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>23434.247</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>96441.58109000001</v>
@@ -2012,40 +2053,45 @@
         <v>216705.57989</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>196504.27487</v>
+        <v>196523.69676</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>225093.88041</v>
+        <v>225094.45517</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>436380.1317</v>
+        <v>492589.3749</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>1502339.20544</v>
+        <v>1557739.87925</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>465880.8846</v>
+        <v>466247.63423</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>556822.2719500001</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>1704114.22365</v>
+        <v>1704121.97755</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>692436.2921999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>693660.3694300001</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>1322100.057</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>105.08898</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>33.07976</v>
+        <v>33.07975999999999</v>
       </c>
       <c r="E33" s="48" t="n">
         <v>44.82503</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>2764.77674</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>2452.276</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>127.90425</v>
@@ -2090,10 +2141,10 @@
         <v>17.38946</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>5.22977</v>
+        <v>5.229769999999999</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>9.1401</v>
+        <v>9.140099999999999</v>
       </c>
       <c r="H34" s="48" t="n">
         <v>148.31609</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>830.4791399999999</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>665.8869999999999</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>32079.31972</v>
@@ -2126,37 +2182,42 @@
         <v>39127.66256</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>73071.23244999998</v>
+        <v>73071.23245</v>
       </c>
       <c r="F35" s="48" t="n">
         <v>74017.52883</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>70998.92373000001</v>
+        <v>71048.36203</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>97977.57238</v>
+        <v>98238.24159999999</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>106741.95579</v>
+        <v>111967.65463</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>144219.3168</v>
+        <v>144770.25884</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>175649.91108</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>209517.39827</v>
+        <v>209431.27492</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>242977.52795</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>242532.73869</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>226286.332</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>138832.55792</v>
@@ -2168,37 +2229,42 @@
         <v>284760.93401</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>209032.67037</v>
+        <v>209032.76004</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>329709.92422</v>
+        <v>330043.87151</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>503565.642</v>
+        <v>565455.8630599999</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>1611489.28867</v>
+        <v>1801188.62207</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>727719.63288</v>
+        <v>728221.3313099999</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>840146.5191700001</v>
+        <v>840146.51917</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>2138674.16315</v>
+        <v>2138683.73334</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>986641.3915</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>986671.66649</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>1296715.588</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>9785.790670000002</v>
+        <v>9785.79067</v>
       </c>
       <c r="D37" s="48" t="n">
         <v>4012.26964</v>
@@ -2207,7 +2273,7 @@
         <v>4344.81085</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>8717.569379999999</v>
+        <v>8717.659049999998</v>
       </c>
       <c r="G37" s="48" t="n">
         <v>10588.51176</v>
@@ -2216,7 +2282,7 @@
         <v>10551.93539</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>13157.9695</v>
+        <v>13209.06733</v>
       </c>
       <c r="J37" s="48" t="n">
         <v>13059.81348</v>
@@ -2230,11 +2296,16 @@
       <c r="M37" s="48" t="n">
         <v>22116.37188</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>8355.751</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>17708.38064</v>
@@ -2255,10 +2326,10 @@
         <v>21529.85796</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>20800.54586</v>
+        <v>22755.47372</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>53695.32584</v>
+        <v>53704.82584</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>50732.06576</v>
@@ -2267,13 +2338,18 @@
         <v>78081.57962999999</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>83799.45729000001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>83797.35728999999</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>39756.017</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>180.71028</v>
@@ -2285,19 +2361,19 @@
         <v>1881.82191</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>647.83556</v>
+        <v>647.8355600000001</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>4526.355689999999</v>
+        <v>4526.35569</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>3103.41111</v>
+        <v>3115.25047</v>
       </c>
       <c r="I39" s="48" t="n">
         <v>3533.94695</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>4660.124849999999</v>
+        <v>4660.12485</v>
       </c>
       <c r="K39" s="48" t="n">
         <v>2966.4585</v>
@@ -2308,14 +2384,19 @@
       <c r="M39" s="48" t="n">
         <v>3540.07177</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>7748.977</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>93582.71210999998</v>
+        <v>93582.71210999999</v>
       </c>
       <c r="D40" s="48" t="n">
         <v>103547.99134</v>
@@ -2327,34 +2408,39 @@
         <v>122935.1766</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>258151.91494</v>
+        <v>258485.86222</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>411801.68235</v>
+        <v>473654.7678</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>1515091.77414</v>
+        <v>1700012.5216</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>588017.52488</v>
+        <v>588425.21747</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>694791.6571299999</v>
+        <v>694791.6571299998</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>1881074.32838</v>
+        <v>1881083.89757</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>747986.13382</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>748000.38176</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>1081784.161</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>292.59717</v>
+        <v>292.5971700000001</v>
       </c>
       <c r="D41" s="48" t="n">
         <v>39.7551</v>
@@ -2375,7 +2461,7 @@
         <v>3276.84252</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>445.7064099999999</v>
+        <v>445.70641</v>
       </c>
       <c r="K41" s="48" t="n">
         <v>1364.28561</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>2478.99723</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>3111.949</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>35.08157</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>17247.28548</v>
@@ -2444,31 +2540,36 @@
         <v>29396.35845</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>32001.34982</v>
+        <v>32001.34983</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>51897.90318</v>
+        <v>51923.19943000001</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>55559.77613000001</v>
+        <v>58332.33638</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>67816.57146000001</v>
+        <v>67901.07730000002</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>67011.57833</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>124462.96133</v>
+        <v>124462.96233</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>126720.35951</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>126738.48656</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>155958.733</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>143799.41665</v>
@@ -2480,34 +2581,39 @@
         <v>224611.03889</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>293350.89654</v>
+        <v>293392.0335</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>342671.18503</v>
+        <v>342747.9663499999</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>321531.61329</v>
+        <v>335415.84835</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>412935.97835</v>
+        <v>454156.97215</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>483530.9140700001</v>
+        <v>483868.08399</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>611209.8873300001</v>
+        <v>611209.8873299999</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>1059178.19155</v>
+        <v>1059385.92391</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>989285.67266</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>989529.64613</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>887073.209</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>130317.19568</v>
@@ -2519,34 +2625,39 @@
         <v>153357.92632</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>180822.2569</v>
+        <v>180863.39386</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>283639.70232</v>
+        <v>283716.48364</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>284321.18814</v>
+        <v>285607.74726</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>386246.67058</v>
+        <v>427467.66438</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>454184.76756</v>
+        <v>454521.93748</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>576301.7731699999</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>922838.22562</v>
+        <v>923045.9579800001</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>926574.4125900001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>926818.3860599999</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>854935.541</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>13482.22097</v>
@@ -2555,16 +2666,16 @@
         <v>14834.87188</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>71253.11257000001</v>
+        <v>71253.11257</v>
       </c>
       <c r="F46" s="48" t="n">
         <v>112528.63964</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>59031.48271</v>
+        <v>59031.48271000001</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>37210.42515</v>
+        <v>49808.10109</v>
       </c>
       <c r="I46" s="48" t="n">
         <v>26689.30777</v>
@@ -2581,11 +2692,16 @@
       <c r="M46" s="48" t="n">
         <v>62711.26007</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>32137.668</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>245362.30287</v>
@@ -2597,34 +2713,39 @@
         <v>460292.15319</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>431607.8727600001</v>
+        <v>430804.36563</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>704809.06035</v>
+        <v>703135.698</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>624770.97227</v>
+        <v>622915.2124900001</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>600692.75375</v>
+        <v>507471.9582399999</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>692023.61346</v>
+        <v>693813.5391999999</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>1548063.83114</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>1560051.97839</v>
+        <v>1560810.77967</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>1582403.23592</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>1596320.38422</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>2487914.696</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>79764.15672999999</v>
@@ -2636,37 +2757,42 @@
         <v>127882.62546</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>167807.31248</v>
+        <v>167808.45541</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>170891.00072</v>
+        <v>170932.38652</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>155255.04012</v>
+        <v>159565.12768</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>176942.92767</v>
+        <v>181605.18797</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>259159.67651</v>
+        <v>260501.21818</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>426470.92238</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>275422.72899</v>
+        <v>275503.08535</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>403874.1578099999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>405593.02239</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>398077.075</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>715.0642700000001</v>
+        <v>715.06427</v>
       </c>
       <c r="D49" s="48" t="n">
         <v>1178.24807</v>
@@ -2681,13 +2807,13 @@
         <v>1889.92208</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>4588.171359999999</v>
+        <v>4588.17136</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>6930.78825</v>
+        <v>7016.44765</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>1839.49236</v>
+        <v>2472.87945</v>
       </c>
       <c r="K49" s="48" t="n">
         <v>2270.84028</v>
@@ -2698,14 +2824,19 @@
       <c r="M49" s="48" t="n">
         <v>6266.86802</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>6109.751</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>79049.09246000001</v>
+        <v>79049.09246</v>
       </c>
       <c r="D50" s="48" t="n">
         <v>71387.34587999999</v>
@@ -2714,37 +2845,42 @@
         <v>124706.11245</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>166123.24348</v>
+        <v>166124.38641</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>169001.07864</v>
+        <v>169042.46444</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>150666.86876</v>
+        <v>154976.95632</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>170012.13942</v>
+        <v>174588.74032</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>257320.18415</v>
+        <v>258028.33873</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>424200.0821</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>274202.93796</v>
+        <v>274283.29432</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>397607.28979</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>399326.15437</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>391967.324</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>79899.15796000001</v>
+        <v>79899.15796</v>
       </c>
       <c r="D51" s="47" t="n">
         <v>87407.73123999999</v>
@@ -2753,34 +2889,39 @@
         <v>322844.5496</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>135827.617</v>
+        <v>135828.49849</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>203878.3465700001</v>
+        <v>204187.76432</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>290774.56261</v>
+        <v>294950.56912</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>237298.43407</v>
+        <v>245465.76994</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>406851.26922</v>
+        <v>407543.51486</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>271396.39991</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>507749.93316</v>
+        <v>507790.6890600001</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>455921.41177</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>456616.10061</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>368166.991</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>17196.20335</v>
@@ -2795,16 +2936,16 @@
         <v>23800.19028</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>52738.58775000001</v>
+        <v>52738.58775</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>51464.33272</v>
+        <v>51464.33272000001</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>67906.24772999999</v>
+        <v>68607.49023000001</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>60062.66204000001</v>
+        <v>60158.5632</v>
       </c>
       <c r="K52" s="48" t="n">
         <v>71842.16584</v>
@@ -2813,19 +2954,24 @@
         <v>162536.30771</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>202228.61756</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>202280.26253</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>144321.857</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>10121.07686</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>9517.57969</v>
+        <v>9517.579689999999</v>
       </c>
       <c r="E53" s="48" t="n">
         <v>19223.04709</v>
@@ -2837,28 +2983,33 @@
         <v>17181.3378</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>15639.33988</v>
+        <v>16705.91563</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>19701.12524</v>
+        <v>19719.92967</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>20344.17898</v>
+        <v>20400.45282</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>21269.78052</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>29893.82231</v>
+        <v>29893.98023999999</v>
       </c>
       <c r="M53" s="48" t="n">
         <v>38202.26525</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="48" t="n">
+        <v>17280.484</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>52581.87775</v>
@@ -2870,34 +3021,39 @@
         <v>280118.77649</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>101848.01409</v>
+        <v>101848.89558</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>133958.42102</v>
+        <v>134267.83877</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>223670.89001</v>
+        <v>226780.32077</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>149691.0611</v>
+        <v>157138.35004</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>326444.4282</v>
+        <v>326984.49884</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>178284.45355</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>315319.80314</v>
+        <v>315360.40111</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>215490.52896</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>216133.57283</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>206564.65</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>245227.30164</v>
@@ -2909,34 +3065,39 @@
         <v>265330.22905</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>463587.56824</v>
+        <v>462784.3225499999</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>671821.7144999999</v>
+        <v>669880.3202000001</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>489251.44978</v>
+        <v>487529.77105</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>540337.2473500001</v>
+        <v>443611.3762700001</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>544332.02075</v>
+        <v>546771.24252</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>1703138.35361</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>1327724.77422</v>
+        <v>1328523.17596</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>1530355.98196</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>1545297.306</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>2517824.78</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>61761.48546</v>
@@ -2951,31 +3112,36 @@
         <v>112342.9986</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>140840.41495</v>
+        <v>140871.8089</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>133404.9732</v>
+        <v>134144.82583</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>173059.52239</v>
+        <v>188231.4823</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>197193.94298</v>
+        <v>197911.51478</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>286959.63785</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>336831.94667</v>
+        <v>336876.80155</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>335550.68026</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>339209.90746</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>445219.591</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>183465.81618</v>
@@ -2987,31 +3153,34 @@
         <v>150622.56985</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>351244.56964</v>
+        <v>350441.32395</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>530981.29955</v>
+        <v>529008.5112999999</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>355846.4765799999</v>
+        <v>353384.94522</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>367277.7249599999</v>
+        <v>255379.89397</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>347138.07777</v>
+        <v>348859.72774</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>1416178.71576</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>990892.8275499999</v>
+        <v>991646.3744099999</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>1194805.3017</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>1206087.39854</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>2072605.189</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>2988</v>
@@ -3041,31 +3213,34 @@
         <v>3254</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>3317</v>
+        <v>3322</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>3460</v>
+        <v>3475</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>3536</v>
+        <v>3564</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>3521</v>
+        <v>3572</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>3654</v>
+        <v>3673</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>3801</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>3887</v>
+        <v>3995</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>3870</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>4058</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>4195</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>